--- a/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
+++ b/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
@@ -21,9 +21,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市大里區大孝段00380001地號</t>
+  </si>
+  <si>
+    <t>臺中市大里區大孝段00380000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>]6分之1</t>
+  </si>
+  <si>
+    <t>謝俊雄</t>
+  </si>
+  <si>
+    <t>93年08月26日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>8400000(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>何欣純</t>
+  </si>
+  <si>
+    <t>tmp2e891</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,46 +125,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市大里區大孝段0038-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市大里區大孝段0038-0000 地號</t>
-  </si>
-  <si>
-    <t>全部 •</t>
-  </si>
-  <si>
-    <t>]6分之1</t>
-  </si>
-  <si>
-    <t>謝俊雄</t>
-  </si>
-  <si>
-    <t>93年08月 26日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>8’400,000(超 過五年）</t>
-  </si>
-  <si>
-    <t>8,400,000(超 過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺中市清水區秀水段秀水小段 00060-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市清水區秀水段秀水小段 01498-000 建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>89年01月 14 ti</t>
+    <t>臺中市清水區秀水段秀水小段00060000建號</t>
+  </si>
+  <si>
+    <t>臺中市清水區秀水段秀水小段01498000建號</t>
+  </si>
+  <si>
+    <t>89年01月14ti</t>
   </si>
   <si>
     <t>(自建）</t>
@@ -92,7 +140,7 @@
     <t>(超堝石年)</t>
   </si>
   <si>
-    <t>3’300,000(超 過五年）</t>
+    <t>3300000(超過五年）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -107,10 +155,7 @@
     <t>國瑞(國產091603)</t>
   </si>
   <si>
-    <t>何欣純</t>
-  </si>
-  <si>
-    <t>96年10月 25 R</t>
+    <t>96年10月25R</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -161,7 +206,7 @@
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/</t>
+    <t>項</t>
   </si>
   <si>
     <t>價</t>
@@ -203,10 +248,10 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>霧峰鄕農會 臺中市霧峰區四德路</t>
-  </si>
-  <si>
-    <t>93年09月 14日</t>
+    <t>霧峰鄕農會臺中市霧峰區四德路</t>
+  </si>
+  <si>
+    <t>93年09月14日</t>
   </si>
   <si>
     <t>房貸</t>
@@ -568,13 +613,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,57 +641,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>77.76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>288.88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1733</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -664,25 +772,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -690,25 +798,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>165.8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -716,25 +824,25 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>269.37</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +860,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -775,19 +883,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>1497</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2">
         <v>579000</v>
@@ -808,19 +916,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -828,16 +936,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>1080338</v>
@@ -858,25 +966,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -884,13 +992,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2">
         <v>106.3034</v>
@@ -899,7 +1007,7 @@
         <v>68.33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2">
         <v>212294.31</v>
@@ -920,16 +1028,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -937,13 +1045,13 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>331536</v>
@@ -964,13 +1072,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -978,13 +1086,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1002,22 +1110,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1025,22 +1133,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>6081426</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
+++ b/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -65,111 +65,72 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市大里區大孝段00380001地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市大里區大孝段00380000地號</t>
   </si>
   <si>
+    <t>]6分之1</t>
+  </si>
+  <si>
+    <t>謝俊雄</t>
+  </si>
+  <si>
+    <t>93年08月26日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>8400000(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>何欣純</t>
+  </si>
+  <si>
+    <t>tmp2e891</t>
+  </si>
+  <si>
+    <t>臺中市清水區秀水段秀水小段00060000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>]6分之1</t>
-  </si>
-  <si>
-    <t>謝俊雄</t>
-  </si>
-  <si>
-    <t>93年08月26日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>8400000(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>何欣純</t>
-  </si>
-  <si>
-    <t>tmp2e891</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺中市清水區秀水段秀水小段00060000建號</t>
+    <t>89年01月14ti</t>
+  </si>
+  <si>
+    <t>(自建）</t>
+  </si>
+  <si>
+    <t>(超堝石年)</t>
   </si>
   <si>
     <t>臺中市清水區秀水段秀水小段01498000建號</t>
   </si>
   <si>
-    <t>89年01月14ti</t>
-  </si>
-  <si>
-    <t>(自建）</t>
-  </si>
-  <si>
-    <t>(超堝石年)</t>
-  </si>
-  <si>
     <t>3300000(超過五年）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>國瑞(國產091603)</t>
   </si>
   <si>
     <t>96年10月25R</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行大里分行</t>
   </si>
   <si>
@@ -179,21 +140,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>全球大樂退</t>
   </si>
   <si>
@@ -203,46 +149,13 @@
     <t>美金</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
     <t>國泰富貴保本三福終生壽險</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>國寶人壽</t>
   </si>
   <si>
     <t>得意年年</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -613,13 +526,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,19 +575,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>77.76</v>
+        <v>288.88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -707,54 +626,13 @@
         <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>288.88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1733</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2">
-        <v>16</v>
+      <c r="P2" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>48.1466666666667</v>
       </c>
     </row>
   </sheetData>
@@ -763,200 +641,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2">
-        <v>165.8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2">
-        <v>269.37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1497</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2">
-        <v>579000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1080338</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -966,51 +650,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="C1" s="1">
+        <v>165.8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <v>269.37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="2">
-        <v>106.3034</v>
-      </c>
-      <c r="F2" s="2">
-        <v>68.33</v>
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="2">
-        <v>212294.31</v>
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1018,43 +702,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2">
-        <v>331536</v>
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>579000</v>
       </c>
     </row>
   </sheetData>
@@ -1062,37 +735,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>80</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1080338</v>
       </c>
     </row>
   </sheetData>
@@ -1100,55 +765,119 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1">
+        <v>106.3034</v>
+      </c>
+      <c r="F1" s="1">
+        <v>68.33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1">
+        <v>212294.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1">
+        <v>331536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
+      <c r="E1" s="1">
+        <v>6081426</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>90</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6081426</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
+++ b/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -71,9 +71,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市大里區大孝段00380001地號</t>
+  </si>
+  <si>
     <t>臺中市大里區大孝段00380000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>]6分之1</t>
   </si>
   <si>
@@ -107,7 +113,7 @@
     <t>臺中市清水區秀水段秀水小段00060000建號</t>
   </si>
   <si>
-    <t>全部</t>
+    <t>臺中市清水區秀水段秀水小段01498000建號</t>
   </si>
   <si>
     <t>89年01月14ti</t>
@@ -117,9 +123,6 @@
   </si>
   <si>
     <t>(超堝石年)</t>
-  </si>
-  <si>
-    <t>臺中市清水區秀水段秀水小段01498000建號</t>
   </si>
   <si>
     <t>3300000(超過五年）</t>
@@ -526,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,54 +587,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>288.88</v>
+        <v>77.76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" s="2">
         <v>1733</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>77.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>288.88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2">
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1733</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
         <v>16</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>0.166666666666667</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>48.1466666666667</v>
       </c>
     </row>
@@ -641,6 +697,281 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2">
+        <v>165.8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>165.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
+        <v>269.37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1733</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>269.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1497</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1">
+        <v>579000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1497</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2">
+        <v>579000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1080338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1080338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -650,149 +981,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1">
-        <v>165.8</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="E1" s="1">
+        <v>106.3034</v>
+      </c>
+      <c r="F1" s="1">
+        <v>68.33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="H1" s="1">
+        <v>212294.31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>269.37</v>
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="E2" s="2">
+        <v>106.3034</v>
+      </c>
+      <c r="F2" s="2">
+        <v>68.33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1497</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>579000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1080338</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1">
-        <v>106.3034</v>
-      </c>
-      <c r="F1" s="1">
-        <v>68.33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2">
         <v>212294.31</v>
       </c>
     </row>
@@ -803,23 +1035,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1">
+        <v>331536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2">
         <v>331536</v>
       </c>
     </row>
@@ -830,21 +1079,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -854,30 +1117,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1">
         <v>6081426</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="2">
+        <v>6081426</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
+++ b/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>3300000(超過五年）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>國瑞(國產091603)</t>
@@ -867,38 +870,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1">
-        <v>1497</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1">
-        <v>579000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>1497</v>
@@ -907,13 +931,34 @@
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="2">
         <v>579000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -931,13 +976,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -951,13 +996,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -981,13 +1026,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1">
         <v>106.3034</v>
@@ -996,7 +1041,7 @@
         <v>68.33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1">
         <v>212294.31</v>
@@ -1007,13 +1052,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2">
         <v>106.3034</v>
@@ -1022,7 +1067,7 @@
         <v>68.33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2">
         <v>212294.31</v>
@@ -1043,7 +1088,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1060,7 +1105,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1087,10 +1132,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -1101,10 +1146,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -1125,22 +1170,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1">
         <v>6081426</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1148,22 +1193,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2">
         <v>6081426</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
+++ b/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -128,6 +128,9 @@
     <t>3300000(超過五年）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
   </si>
   <si>
     <t>96年10月25R</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行大里分行</t>
@@ -783,7 +789,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>25</v>
@@ -836,7 +842,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>25</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -922,7 +928,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1497</v>
@@ -931,7 +937,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -940,7 +946,7 @@
         <v>579000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
@@ -976,13 +982,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -996,13 +1002,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -1026,13 +1032,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1">
         <v>106.3034</v>
@@ -1041,7 +1047,7 @@
         <v>68.33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1">
         <v>212294.31</v>
@@ -1052,13 +1058,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2">
         <v>106.3034</v>
@@ -1067,7 +1073,7 @@
         <v>68.33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2">
         <v>212294.31</v>
@@ -1088,7 +1094,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1105,7 +1111,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1132,10 +1138,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -1146,10 +1152,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -1170,22 +1176,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1">
         <v>6081426</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1193,22 +1199,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>6081426</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
+++ b/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -143,6 +143,15 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行大里分行</t>
   </si>
   <si>
@@ -150,6 +159,9 @@
   </si>
   <si>
     <t>新臺幣</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>全球大樂退</t>
@@ -974,13 +986,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -991,30 +1003,72 @@
         <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1080338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="2">
         <v>1080338</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1032,13 +1086,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1">
         <v>106.3034</v>
@@ -1047,7 +1101,7 @@
         <v>68.33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1">
         <v>212294.31</v>
@@ -1058,13 +1112,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2">
         <v>106.3034</v>
@@ -1073,7 +1127,7 @@
         <v>68.33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2">
         <v>212294.31</v>
@@ -1094,7 +1148,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1111,7 +1165,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1138,10 +1192,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -1152,10 +1206,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -1176,22 +1230,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1">
         <v>6081426</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1199,22 +1253,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
         <v>6081426</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
+++ b/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -164,6 +164,15 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
     <t>全球大樂退</t>
   </si>
   <si>
@@ -173,7 +182,13 @@
     <t>美金</t>
   </si>
   <si>
+    <t>fund</t>
+  </si>
+  <si>
     <t>國泰富貴保本三福終生壽險</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>國寶人壽</t>
@@ -1078,47 +1093,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1">
-        <v>106.3034</v>
-      </c>
-      <c r="F1" s="1">
-        <v>68.33</v>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1">
-        <v>212294.31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2">
         <v>106.3034</v>
@@ -1127,10 +1163,31 @@
         <v>68.33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2">
         <v>212294.31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1140,32 +1197,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1">
-        <v>331536</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1175,6 +1253,27 @@
       </c>
       <c r="E2" s="2">
         <v>331536</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1192,10 +1291,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -1206,10 +1305,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -1230,22 +1329,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>6081426</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1253,22 +1352,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>6081426</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
+++ b/legislator/property/output/normal/何欣純_2012-04-30_財產申報表_tmp2e891.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -188,7 +188,10 @@
     <t>國泰富貴保本三福終生壽險</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>國寶人壽</t>
@@ -197,6 +200,15 @@
     <t>得意年年</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -207,6 +219,9 @@
   </si>
   <si>
     <t>房貸</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1283,35 +1298,77 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1321,53 +1378,95 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1">
-        <v>6081426</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>6081426</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
